--- a/biology/Botanique/Ophiopogon_japonicus/Ophiopogon_japonicus.xlsx
+++ b/biology/Botanique/Ophiopogon_japonicus/Ophiopogon_japonicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ophiopogon japonicus
 Le Muguet du Japon ou Barbe de serpent (Ophiopogon japonicus (Thunb.) Ker Gawl., 1807) est une plante herbacée vivace.
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la classification classique, il fait partie de la famille des Liliaceae. Selon la classification phylogénétique, il fait partie de la famille des Ruscaceae ou des Asparagaceae (qui l'avait d'abord placé dans la famille des Convallariaceae).
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Vivace à rhizomes traçants, peut s'utiliser comme couvre-sol.
 Origine : Japon et Corée
@@ -585,7 +601,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Convallaria japonica Thunb.
 Liriope gracilis (Kunth) Nakai</t>
@@ -616,7 +634,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom scientifique vient de « ophis » qui veut dire « serpent » et de « pogon » qui veut dire « barbe », probablement à cause de la forme des feuilles. En japonais, le nom de cette plante est d'ailleurs « ryu-no-hige » (« barbe de dragon ») ou bien « ja-no-hige » (« barbe de serpent »).
 </t>
